--- a/Data&Code/LR - Dataset.xlsx
+++ b/Data&Code/LR - Dataset.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/MATLAB/deuteration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chemGeoUser\Dropbox (BGU)\Personal Data Backups\Hadas Shalit Peleg\deuteration outlier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073D269D-0FA4-C945-8346-172B68262D07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE61848-A52C-42DC-8122-F6D09F1D125D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="500" windowWidth="33600" windowHeight="19560" activeTab="1" xr2:uid="{01A8684A-1AA2-1241-88E8-B9478254A9C0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{01A8684A-1AA2-1241-88E8-B9478254A9C0}"/>
   </bookViews>
   <sheets>
     <sheet name="cat" sheetId="1" r:id="rId1"/>
     <sheet name="rate" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1559,7 +1559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1740,6 +1740,24 @@
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1764,24 +1782,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1800,6 +1800,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2116,54 +2117,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC31D6B2-EA62-A640-9B9E-D8D65D3B8729}">
   <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="28" max="28" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="52" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="52" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57"/>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="123" t="s">
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="123" t="s">
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="112" t="s">
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="114"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="120"/>
     </row>
-    <row r="2" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="88" t="s">
         <v>0</v>
       </c>
@@ -2246,7 +2247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>24</v>
       </c>
@@ -2326,16 +2327,16 @@
       <c r="Y3" s="49">
         <v>0.3</v>
       </c>
-      <c r="Z3" s="15">
-        <f>X3/Y3</f>
-        <v>2.3333333333333335</v>
+      <c r="Z3" s="132">
+        <f>Y3/X3</f>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AA3" s="26">
         <f>LOG(Z3)</f>
-        <v>0.36797678529459443</v>
+        <v>-0.36797678529459438</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>25</v>
       </c>
@@ -2415,16 +2416,16 @@
       <c r="Y4" s="50">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z4" s="40">
-        <f t="shared" ref="Z4:Z13" si="4">X4/Y4</f>
-        <v>6.1428571428571423</v>
+      <c r="Z4" s="30">
+        <f t="shared" ref="Z4:Z16" si="4">Y4/X4</f>
+        <v>0.16279069767441862</v>
       </c>
       <c r="AA4" s="32">
         <f t="shared" ref="AA4:AA16" si="5">LOG(Z4)</f>
-        <v>0.78837041556532961</v>
+        <v>-0.78837041556532972</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>26</v>
       </c>
@@ -2506,14 +2507,14 @@
       </c>
       <c r="Z5" s="30">
         <f t="shared" si="4"/>
-        <v>0.75438596491228083</v>
+        <v>1.3255813953488369</v>
       </c>
       <c r="AA5" s="32">
         <f>LOG(Z5)</f>
-        <v>-0.12240640009290481</v>
+        <v>0.12240640009290477</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>27</v>
       </c>
@@ -2595,14 +2596,14 @@
       </c>
       <c r="Z6" s="30">
         <f t="shared" si="4"/>
-        <v>13.285714285714283</v>
+        <v>7.5268817204301092E-2</v>
       </c>
       <c r="AA6" s="32">
         <f t="shared" si="5"/>
-        <v>1.1233849085396781</v>
+        <v>-1.1233849085396781</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
         <v>28</v>
       </c>
@@ -2684,14 +2685,14 @@
       </c>
       <c r="Z7" s="30">
         <f t="shared" si="4"/>
-        <v>1.4096385542168675</v>
+        <v>0.70940170940170943</v>
       </c>
       <c r="AA7" s="32">
         <f t="shared" si="5"/>
-        <v>0.14910776937008774</v>
+        <v>-0.14910776937008771</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
         <v>29</v>
       </c>
@@ -2773,14 +2774,14 @@
       </c>
       <c r="Z8" s="30">
         <f t="shared" si="4"/>
-        <v>1.9411764705882348</v>
+        <v>0.51515151515151525</v>
       </c>
       <c r="AA8" s="32">
         <f t="shared" si="5"/>
-        <v>0.28806501849961347</v>
+        <v>-0.28806501849961347</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
         <v>30</v>
       </c>
@@ -2862,14 +2863,14 @@
       </c>
       <c r="Z9" s="30">
         <f t="shared" si="4"/>
-        <v>0.70940170940170955</v>
+        <v>1.4096385542168672</v>
       </c>
       <c r="AA9" s="32">
         <f t="shared" si="5"/>
-        <v>-0.14910776937008766</v>
+        <v>0.14910776937008766</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>31</v>
       </c>
@@ -2951,14 +2952,14 @@
       </c>
       <c r="Z10" s="30">
         <f t="shared" si="4"/>
-        <v>10.76470588235294</v>
+        <v>9.2896174863387984E-2</v>
       </c>
       <c r="AA10" s="32">
         <f t="shared" si="5"/>
-        <v>1.0320021683521554</v>
+        <v>-1.0320021683521554</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
         <v>32</v>
       </c>
@@ -3040,14 +3041,14 @@
       </c>
       <c r="Z11" s="30">
         <f t="shared" si="4"/>
-        <v>0.51515151515151503</v>
+        <v>1.9411764705882355</v>
       </c>
       <c r="AA11" s="32">
         <f t="shared" si="5"/>
-        <v>-0.28806501849961363</v>
+        <v>0.28806501849961358</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>33</v>
       </c>
@@ -3129,14 +3130,14 @@
       </c>
       <c r="Z12" s="30">
         <f t="shared" si="4"/>
-        <v>3.166666666666667</v>
+        <v>0.31578947368421051</v>
       </c>
       <c r="AA12" s="32">
         <f t="shared" si="5"/>
-        <v>0.50060235056918534</v>
+        <v>-0.50060235056918534</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>34</v>
       </c>
@@ -3218,14 +3219,14 @@
       </c>
       <c r="Z13" s="30">
         <f t="shared" si="4"/>
-        <v>4.7142857142857144</v>
+        <v>0.21212121212121213</v>
       </c>
       <c r="AA13" s="32">
         <f t="shared" si="5"/>
-        <v>0.67341589986363071</v>
+        <v>-0.6734158998636306</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>35</v>
       </c>
@@ -3306,15 +3307,15 @@
         <v>0.98</v>
       </c>
       <c r="Z14" s="30">
-        <f>X14/Y14</f>
-        <v>2.0408163265306142E-2</v>
+        <f t="shared" si="4"/>
+        <v>48.999999999999957</v>
       </c>
       <c r="AA14" s="32">
         <f>LOG(Z14)</f>
-        <v>-1.6901960800285132</v>
+        <v>1.6901960800285132</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>36</v>
       </c>
@@ -3395,15 +3396,15 @@
         <v>0.98</v>
       </c>
       <c r="Z15" s="30">
-        <f>X15/Y15</f>
-        <v>2.0408163265306142E-2</v>
+        <f t="shared" si="4"/>
+        <v>48.999999999999957</v>
       </c>
       <c r="AA15" s="32">
         <f>LOG(Z15)</f>
-        <v>-1.6901960800285132</v>
+        <v>1.6901960800285132</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>37</v>
       </c>
@@ -3483,50 +3484,50 @@
       <c r="Y16" s="48">
         <v>0.82499999999999996</v>
       </c>
-      <c r="Z16" s="48">
-        <f>X16/Y16</f>
-        <v>0.21212121212121218</v>
+      <c r="Z16" s="82">
+        <f t="shared" si="4"/>
+        <v>4.7142857142857126</v>
       </c>
       <c r="AA16" s="110">
         <f t="shared" si="5"/>
-        <v>-0.67341589986363048</v>
+        <v>0.67341589986363048</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="120" t="s">
+    <row r="17" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="115" t="s">
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="116"/>
-      <c r="K17" s="117" t="s">
+      <c r="J17" s="122"/>
+      <c r="K17" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="L17" s="118"/>
-      <c r="M17" s="115" t="s">
+      <c r="L17" s="124"/>
+      <c r="M17" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="N17" s="119"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="117" t="s">
+      <c r="N17" s="125"/>
+      <c r="O17" s="122"/>
+      <c r="P17" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="115" t="s">
+      <c r="Q17" s="125"/>
+      <c r="R17" s="124"/>
+      <c r="S17" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="T17" s="119"/>
-      <c r="U17" s="119"/>
-      <c r="V17" s="119"/>
-      <c r="W17" s="118"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3550,29 +3551,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B04EAF8-9819-2D42-9A0B-6CADB1FCA32F}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="21" max="21" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="21" max="21" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="52" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="52" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57"/>
       <c r="B1" s="129" t="s">
         <v>38</v>
       </c>
       <c r="C1" s="130"/>
       <c r="D1" s="131"/>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="114"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="120"/>
       <c r="I1" s="126" t="s">
         <v>59</v>
       </c>
@@ -3581,20 +3582,20 @@
       <c r="L1" s="127"/>
       <c r="M1" s="127"/>
       <c r="N1" s="128"/>
-      <c r="O1" s="123" t="s">
+      <c r="O1" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="112" t="s">
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="114"/>
+      <c r="T1" s="120"/>
       <c r="U1" s="58"/>
       <c r="V1" s="51"/>
     </row>
-    <row r="2" spans="1:22" s="54" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="54" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>41</v>
       </c>
@@ -3658,7 +3659,7 @@
       <c r="U2" s="63"/>
       <c r="V2" s="53"/>
     </row>
-    <row r="3" spans="1:22" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>48</v>
       </c>
@@ -3723,7 +3724,7 @@
       <c r="U3" s="69"/>
       <c r="V3" s="55"/>
     </row>
-    <row r="4" spans="1:22" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
         <v>49</v>
       </c>
@@ -3788,7 +3789,7 @@
       <c r="U4" s="69"/>
       <c r="V4" s="55"/>
     </row>
-    <row r="5" spans="1:22" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
         <v>50</v>
       </c>
@@ -3853,7 +3854,7 @@
       <c r="U5" s="69"/>
       <c r="V5" s="55"/>
     </row>
-    <row r="6" spans="1:22" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>51</v>
       </c>
@@ -3918,7 +3919,7 @@
       <c r="U6" s="69"/>
       <c r="V6" s="55"/>
     </row>
-    <row r="7" spans="1:22" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" s="56" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
         <v>64</v>
       </c>
@@ -3983,7 +3984,7 @@
       <c r="U7" s="69"/>
       <c r="V7" s="55"/>
     </row>
-    <row r="8" spans="1:22" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" s="56" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>65</v>
       </c>
@@ -4048,7 +4049,7 @@
       <c r="U8" s="107"/>
       <c r="V8" s="55"/>
     </row>
-    <row r="9" spans="1:22" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
         <v>52</v>
       </c>
@@ -4113,7 +4114,7 @@
       <c r="U9" s="69"/>
       <c r="V9" s="55"/>
     </row>
-    <row r="10" spans="1:22" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
         <v>53</v>
       </c>
@@ -4178,7 +4179,7 @@
       <c r="U10" s="69"/>
       <c r="V10" s="55"/>
     </row>
-    <row r="11" spans="1:22" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
         <v>54</v>
       </c>
@@ -4244,7 +4245,7 @@
       <c r="U11" s="69"/>
       <c r="V11" s="55"/>
     </row>
-    <row r="12" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="80" t="s">
         <v>55</v>
       </c>
